--- a/计划反馈表.xlsx
+++ b/计划反馈表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16400" yWindow="6520" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="15820" yWindow="1840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>详细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,38 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB的依赖包加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热更方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要热更UI代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前需要为ResourceLoad添加AB包依赖包加载的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好与地编耦合度低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -469,6 +501,36 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/计划反馈表.xlsx
+++ b/计划反馈表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15820" yWindow="1840" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="11380" yWindow="1760" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>详细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,15 +82,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡编辑器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最好与地编耦合度低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset资源加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在的资源管理太烂了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现阶段不考虑了,没啥卵用;不过可以在框架上划分,为以后热更做准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,19 +476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -522,15 +531,23 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/计划反馈表.xlsx
+++ b/计划反馈表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="1760" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="13940" yWindow="5460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>详细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>现阶段不考虑了,没啥卵用;不过可以在框架上划分,为以后热更做准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个统一的log系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够输出log到文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -548,6 +556,14 @@
       </c>
       <c r="B5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/计划反馈表.xlsx
+++ b/计划反馈表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="5460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10940" yWindow="3280" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>详细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>能够输出log到文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv无法解析带逗号的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如"32,48"解析会报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -564,6 +572,14 @@
       </c>
       <c r="B6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
